--- a/biology/Histoire de la zoologie et de la botanique/Heinrich_Linck/Heinrich_Linck.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Heinrich_Linck/Heinrich_Linck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heinrich Linck (né à Dantzig en 1638 et mort à Leipzig en 1717) est un pharmacien et collectionneur allemand, fondateur du cabinet de curiosités de la famille Linck à Leipzig.
 </t>
@@ -511,11 +523,13 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'un pharmacien de Danzing, il devient préparateur à la pharmacie Au Lion d'or à Leipzig en 1669, puis gérant en 1681, et acquiert l'officine en 1686. L’herbarium vivum constitué au cours de ses études de médecine est sans doute à la base du cabinet d'histoire naturelle et de curiosités qu'il rassemble dès 1670. La découverte inopinée, en 1694, d'un trésor de 6 000 pièces d'or, une couronne en or et un masque doré, parmi des matières premières destinées à la pharmacie, enrichit sa collection d'œuvres d'art. En 1710, il remet son commerce à ses deux fils, Johann Heinrich et Christian Heinrich[1].
-C'est à Heinrich Linck que l'on doit la plus ancienne collection d'échantillons de bois connue[2].
-Ses collections ont été considérablement accrues par son fils Johann Heinrich Linck l'Ancien ; son petit-fils Johann Heinrich Linck le Jeune continua l'œuvre de ses prédécesseurs et en dressa le catalogue[3]. À la suite de la mort de ce dernier sans héritier, le cabinet de curiosités de la famille Linck a été vendu à Othon-Victor Ier de Schönbourg-Waldenbourg en 1840 et transféré en 1844 dans le Musée et cabinet d'histoire naturelle de Waldenburg (de), en Saxe, spécialement construit à cet effet.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'un pharmacien de Danzing, il devient préparateur à la pharmacie Au Lion d'or à Leipzig en 1669, puis gérant en 1681, et acquiert l'officine en 1686. L’herbarium vivum constitué au cours de ses études de médecine est sans doute à la base du cabinet d'histoire naturelle et de curiosités qu'il rassemble dès 1670. La découverte inopinée, en 1694, d'un trésor de 6 000 pièces d'or, une couronne en or et un masque doré, parmi des matières premières destinées à la pharmacie, enrichit sa collection d'œuvres d'art. En 1710, il remet son commerce à ses deux fils, Johann Heinrich et Christian Heinrich.
+C'est à Heinrich Linck que l'on doit la plus ancienne collection d'échantillons de bois connue.
+Ses collections ont été considérablement accrues par son fils Johann Heinrich Linck l'Ancien ; son petit-fils Johann Heinrich Linck le Jeune continua l'œuvre de ses prédécesseurs et en dressa le catalogue. À la suite de la mort de ce dernier sans héritier, le cabinet de curiosités de la famille Linck a été vendu à Othon-Victor Ier de Schönbourg-Waldenbourg en 1840 et transféré en 1844 dans le Musée et cabinet d'histoire naturelle de Waldenburg (de), en Saxe, spécialement construit à cet effet.
 </t>
         </is>
       </c>
